--- a/data.xlsx
+++ b/data.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\working\waccache\LN2PEPF0000C068\EXCELCNV\25fe4467-f651-434e-a6fe-b37bd9977399\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{401DFBB5-7A20-4436-8740-2B08E82DBDC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D10CE42-6BEA-40EC-B23E-5C39FFE66CA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" firstSheet="3" activeTab="2" xr2:uid="{0638A5BF-1303-48C1-ACFF-7150FD2559CD}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" xr2:uid="{0638A5BF-1303-48C1-ACFF-7150FD2559CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Steps" sheetId="5" r:id="rId1"/>
     <sheet name="sp_upc_lookup data" sheetId="1" r:id="rId2"/>
-    <sheet name="UK_Daily_Data" sheetId="2" r:id="rId3"/>
-    <sheet name="Profit Calc" sheetId="3" r:id="rId4"/>
-    <sheet name="." sheetId="4" r:id="rId5"/>
+    <sheet name="Profit Calc" sheetId="3" r:id="rId3"/>
+    <sheet name="." sheetId="4" r:id="rId4"/>
+    <sheet name="UK_Daily_Data" sheetId="2" r:id="rId5"/>
+    <sheet name="US_Daily_Data" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="334">
   <si>
     <t>step 1 - insert  rows into uk_daily_data from the sheet provided</t>
   </si>
@@ -66,6 +67,9 @@
     <t>where to_be _removed not Y</t>
   </si>
   <si>
+    <t>and gsl_code = B</t>
+  </si>
+  <si>
     <t>Update the tim e_date_stamp with the time of the update</t>
   </si>
   <si>
@@ -75,6 +79,60 @@
     <t>profit calc setup</t>
   </si>
   <si>
+    <t xml:space="preserve">step 4 </t>
+  </si>
+  <si>
+    <t>insert rows into uk_daily_data from the sheet provided in yellow below</t>
+  </si>
+  <si>
+    <t>step5 - build a schedule update routine dynamicall that asin equals asin on uk_daily_data to sp_upc_lookup2 table</t>
+  </si>
+  <si>
+    <t>and gsl_code = C</t>
+  </si>
+  <si>
+    <t>step6</t>
+  </si>
+  <si>
+    <t>step 7 - insert  rows into us_daily_data from the sheet provided</t>
+  </si>
+  <si>
+    <t>step8 - build a schedule update routine dynamicall that asin equals asin on us_daily_data to sp_upc_lookup table</t>
+  </si>
+  <si>
+    <t>US_Buybox_Price_£</t>
+  </si>
+  <si>
+    <t>US_FBA_Fees_£</t>
+  </si>
+  <si>
+    <t>US_Variable_Closing_Fee_£</t>
+  </si>
+  <si>
+    <t>US_Referral_Fee_£</t>
+  </si>
+  <si>
+    <t xml:space="preserve">step9 </t>
+  </si>
+  <si>
+    <t>step10 - build a schedule update routine dynamicall that asin equals asin on uk_daily_data to sp_upc_lookup2 table</t>
+  </si>
+  <si>
+    <t>step11</t>
+  </si>
+  <si>
+    <t>step 12 - insert  newq additional rows into uk_daily_data from the sheet provided</t>
+  </si>
+  <si>
+    <t>step13 - build a schedule update routine dynamicall that asin equals asin on uk_daily_data to sp_gsl_lookup2 table</t>
+  </si>
+  <si>
+    <t>and gsl_code = A</t>
+  </si>
+  <si>
+    <t>step14</t>
+  </si>
+  <si>
     <t>_id</t>
   </si>
   <si>
@@ -384,16 +442,608 @@
     <t>https://www.coolshop.co.uk/product/paw-patrol-grand-prix/23BQ89/</t>
   </si>
   <si>
+    <t>minus</t>
+  </si>
+  <si>
+    <t>equals</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
     <t>ASIN</t>
   </si>
   <si>
-    <t>minus</t>
-  </si>
-  <si>
-    <t>equals</t>
-  </si>
-  <si>
-    <t>+</t>
+    <t>B0D5D9J7V5</t>
+  </si>
+  <si>
+    <t>B0D63JXFV1</t>
+  </si>
+  <si>
+    <t>B0D56QMVWK</t>
+  </si>
+  <si>
+    <t>B0D6B6NJVP</t>
+  </si>
+  <si>
+    <t>B0D5BJ3KV9</t>
+  </si>
+  <si>
+    <t>B0D4XB6S8M</t>
+  </si>
+  <si>
+    <t>B0D4QS7XHH</t>
+  </si>
+  <si>
+    <t>B0D4R3LZQM</t>
+  </si>
+  <si>
+    <t>B0D59TXNCT</t>
+  </si>
+  <si>
+    <t>B0D59QGTHJ</t>
+  </si>
+  <si>
+    <t>B0D4VX8FLP</t>
+  </si>
+  <si>
+    <t>B0D5D7Y5GZ</t>
+  </si>
+  <si>
+    <t>B0D62X9KNF</t>
+  </si>
+  <si>
+    <t>B0D57ZD1VF</t>
+  </si>
+  <si>
+    <t>B0D5D67GT1</t>
+  </si>
+  <si>
+    <t>B0D6L62284</t>
+  </si>
+  <si>
+    <t>B0D5BGBMMB</t>
+  </si>
+  <si>
+    <t>B0D5Y8S8RW</t>
+  </si>
+  <si>
+    <t>B0D667GWGK</t>
+  </si>
+  <si>
+    <t>B0D5DBVS5Y</t>
+  </si>
+  <si>
+    <t>B0D4Y6QX2R</t>
+  </si>
+  <si>
+    <t>B0D4TYXFST</t>
+  </si>
+  <si>
+    <t>B0D5CND892</t>
+  </si>
+  <si>
+    <t>B0D5HMN7LL</t>
+  </si>
+  <si>
+    <t>B0D58P4XN7</t>
+  </si>
+  <si>
+    <t>B0D57D1N6G</t>
+  </si>
+  <si>
+    <t>B0D57HZQGB</t>
+  </si>
+  <si>
+    <t>B0D4QP4FYN</t>
+  </si>
+  <si>
+    <t>B0D4QW731S</t>
+  </si>
+  <si>
+    <t>B0D58JMN84</t>
+  </si>
+  <si>
+    <t>B0D5YD1W2V</t>
+  </si>
+  <si>
+    <t>B0D646M9HY</t>
+  </si>
+  <si>
+    <t>B0D63PS9LV</t>
+  </si>
+  <si>
+    <t>B0D4Y8RJB8</t>
+  </si>
+  <si>
+    <t>B0D6B65G7J</t>
+  </si>
+  <si>
+    <t>B0D66453P4</t>
+  </si>
+  <si>
+    <t>B0D4V1693P</t>
+  </si>
+  <si>
+    <t>B0D5P45N5B</t>
+  </si>
+  <si>
+    <t>B0D58KS7C8</t>
+  </si>
+  <si>
+    <t>B0D58K8SST</t>
+  </si>
+  <si>
+    <t>B0D5B438L6</t>
+  </si>
+  <si>
+    <t>B0D57J73T6</t>
+  </si>
+  <si>
+    <t>B0D5YJH87G</t>
+  </si>
+  <si>
+    <t>B0D62YH9VC</t>
+  </si>
+  <si>
+    <t>B0D62ZQ3MS</t>
+  </si>
+  <si>
+    <t>B0D4R1M4H9</t>
+  </si>
+  <si>
+    <t>B0D5BG7ZP6</t>
+  </si>
+  <si>
+    <t>B0D4YGLKW1</t>
+  </si>
+  <si>
+    <t>B0D63H179X</t>
+  </si>
+  <si>
+    <t>B0D5Z4ZGNG</t>
+  </si>
+  <si>
+    <t>B0D5BGMVX9</t>
+  </si>
+  <si>
+    <t>B0D572TFV1</t>
+  </si>
+  <si>
+    <t>B0D4R4FXQ9</t>
+  </si>
+  <si>
+    <t>B0D5PQ59T3</t>
+  </si>
+  <si>
+    <t>B0D5PF6V59</t>
+  </si>
+  <si>
+    <t>B0D5P8RR47</t>
+  </si>
+  <si>
+    <t>B0D5PCFMS2</t>
+  </si>
+  <si>
+    <t>B0D5PV1PKN</t>
+  </si>
+  <si>
+    <t>B0D58Q8HW9</t>
+  </si>
+  <si>
+    <t>B0D57TV956</t>
+  </si>
+  <si>
+    <t>B0D57RX8KS</t>
+  </si>
+  <si>
+    <t>B0D57SQF94</t>
+  </si>
+  <si>
+    <t>B0D57SVW1Z</t>
+  </si>
+  <si>
+    <t>B0D58NS9JB</t>
+  </si>
+  <si>
+    <t>B0D58P1QXL</t>
+  </si>
+  <si>
+    <t>B0D58JF4L1</t>
+  </si>
+  <si>
+    <t>B0D58K7Y7T</t>
+  </si>
+  <si>
+    <t>B0D5B9PDFC</t>
+  </si>
+  <si>
+    <t>B0D4QYCW2J</t>
+  </si>
+  <si>
+    <t>B0D57XSKQJ</t>
+  </si>
+  <si>
+    <t>B0D57YYY7X</t>
+  </si>
+  <si>
+    <t>B0D66B4PDD</t>
+  </si>
+  <si>
+    <t>B0D64YPM7R</t>
+  </si>
+  <si>
+    <t>B0D64GZB65</t>
+  </si>
+  <si>
+    <t>B0D656XSBY</t>
+  </si>
+  <si>
+    <t>B0D64FZSFJ</t>
+  </si>
+  <si>
+    <t>B0D5CWBJZV</t>
+  </si>
+  <si>
+    <t>B0D5YJ5LCG</t>
+  </si>
+  <si>
+    <t>B0D5CWV4NM</t>
+  </si>
+  <si>
+    <t>B0D5ZW7DJ1</t>
+  </si>
+  <si>
+    <t>B0D5M5F89N</t>
+  </si>
+  <si>
+    <t>B0D6B76CXZ</t>
+  </si>
+  <si>
+    <t>B0D57Z45LV</t>
+  </si>
+  <si>
+    <t>B0D57YPVPG</t>
+  </si>
+  <si>
+    <t>B0D57WZ9TS</t>
+  </si>
+  <si>
+    <t>B0D5CLQTYJ</t>
+  </si>
+  <si>
+    <t>B0D61K34JS</t>
+  </si>
+  <si>
+    <t>B0D56VPX38</t>
+  </si>
+  <si>
+    <t>B0D6GW3Y41</t>
+  </si>
+  <si>
+    <t>B0D5Y85PGG</t>
+  </si>
+  <si>
+    <t>B0D6LGPF8P</t>
+  </si>
+  <si>
+    <t>B0D5B5CQYN</t>
+  </si>
+  <si>
+    <t>B08613TJF7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t>B0935CPWLJ</t>
+  </si>
+  <si>
+    <t>B08D7CTTVY</t>
+  </si>
+  <si>
+    <t>B07KXRGM8X</t>
+  </si>
+  <si>
+    <t>B0B644HQYG</t>
+  </si>
+  <si>
+    <t>B081GJ938B</t>
+  </si>
+  <si>
+    <t>B0BKLK2JWR</t>
+  </si>
+  <si>
+    <t>B08LN4W6GQ</t>
+  </si>
+  <si>
+    <t>B08K9ZGJCB</t>
+  </si>
+  <si>
+    <t>B084DFY7C1</t>
+  </si>
+  <si>
+    <t>B09JSSR8L5</t>
+  </si>
+  <si>
+    <t>B07DLLF1CV</t>
+  </si>
+  <si>
+    <t>B08Z576GW7</t>
+  </si>
+  <si>
+    <t>B0B7B89ZNG</t>
+  </si>
+  <si>
+    <t>B084DS3745</t>
+  </si>
+  <si>
+    <t>B08WQYMXQL</t>
+  </si>
+  <si>
+    <t>B09ZZKBTPR</t>
+  </si>
+  <si>
+    <t>B08N3J9D55</t>
+  </si>
+  <si>
+    <t>B09LDJD5K6</t>
+  </si>
+  <si>
+    <t>B0B1M9ZZC3</t>
+  </si>
+  <si>
+    <t>B0B2KSNG98</t>
+  </si>
+  <si>
+    <t>B0977F6HMP</t>
+  </si>
+  <si>
+    <t>B0B3N8Q3C5</t>
+  </si>
+  <si>
+    <t>B07TP51W3S</t>
+  </si>
+  <si>
+    <t>B09QT4CN8N</t>
+  </si>
+  <si>
+    <t>B095X1XF7T</t>
+  </si>
+  <si>
+    <t>B08XXWBHRH</t>
+  </si>
+  <si>
+    <t>B08P8LGKMH</t>
+  </si>
+  <si>
+    <t>B09KP9991D</t>
+  </si>
+  <si>
+    <t>B09CHXHQRB</t>
+  </si>
+  <si>
+    <t>B09XQT6JL9</t>
+  </si>
+  <si>
+    <t>B0793HHXP8</t>
+  </si>
+  <si>
+    <t>B095Q33D5Z</t>
+  </si>
+  <si>
+    <t>B0BBW1TPLJ</t>
+  </si>
+  <si>
+    <t>B0924RD2Q9</t>
+  </si>
+  <si>
+    <t>B08P6YN1W8</t>
+  </si>
+  <si>
+    <t>B0BBQNJQ1S</t>
+  </si>
+  <si>
+    <t>B0B6PWR9RD</t>
+  </si>
+  <si>
+    <t>B0BKLKGP9R</t>
+  </si>
+  <si>
+    <t>B0B25JHPN4</t>
+  </si>
+  <si>
+    <t>B08DS82XCD</t>
+  </si>
+  <si>
+    <t>B09FY9ZRWH</t>
+  </si>
+  <si>
+    <t>B08WY3T3QD</t>
+  </si>
+  <si>
+    <t>B0B1QH65DY</t>
+  </si>
+  <si>
+    <t>B0BKLKD2ZX</t>
+  </si>
+  <si>
+    <t>B09TG9L8NV</t>
+  </si>
+  <si>
+    <t>B08VFZKR9N</t>
+  </si>
+  <si>
+    <t>B0B836RLRJ</t>
+  </si>
+  <si>
+    <t>B0B691S4N5</t>
+  </si>
+  <si>
+    <t>B09NS1M4B3</t>
+  </si>
+  <si>
+    <t>B0B4NTM1QH</t>
+  </si>
+  <si>
+    <t>B09XR5G9RY</t>
+  </si>
+  <si>
+    <t>B0BGQDNP55</t>
+  </si>
+  <si>
+    <t>B096644GX2</t>
+  </si>
+  <si>
+    <t>B09NMLY1CL</t>
+  </si>
+  <si>
+    <t>B07MJT79PL</t>
+  </si>
+  <si>
+    <t>B0B51F8D3K</t>
+  </si>
+  <si>
+    <t>B08M1D119H</t>
+  </si>
+  <si>
+    <t>B09DTNXQQN</t>
+  </si>
+  <si>
+    <t>B07M7X2JLB</t>
+  </si>
+  <si>
+    <t>B09V3FS7VB</t>
+  </si>
+  <si>
+    <t>B089X3H3GF</t>
+  </si>
+  <si>
+    <t>B08TD7HJT6</t>
+  </si>
+  <si>
+    <t>B0B5LW8VRH</t>
+  </si>
+  <si>
+    <t>B07W5JKBMG</t>
+  </si>
+  <si>
+    <t>B0BKQGYKH3</t>
+  </si>
+  <si>
+    <t>B07DHWCV38</t>
+  </si>
+  <si>
+    <t>B0B4S4Z6H5</t>
+  </si>
+  <si>
+    <t>B096K5994C</t>
+  </si>
+  <si>
+    <t>B08KFSVRYV</t>
+  </si>
+  <si>
+    <t>B09FQB51PZ</t>
+  </si>
+  <si>
+    <t>B087X67KBN</t>
+  </si>
+  <si>
+    <t>B01MZ94DLA</t>
+  </si>
+  <si>
+    <t>B09MRNSMGZ</t>
+  </si>
+  <si>
+    <t>B09CDVGQJ6</t>
+  </si>
+  <si>
+    <t>B0B6GMM3P6</t>
+  </si>
+  <si>
+    <t>B07BHGNJ2V</t>
+  </si>
+  <si>
+    <t>B08634653D</t>
+  </si>
+  <si>
+    <t>B07SJFWCSL</t>
+  </si>
+  <si>
+    <t>B08HP4ZGKP</t>
+  </si>
+  <si>
+    <t>B09F97YLXY</t>
+  </si>
+  <si>
+    <t>B0B5YWF8DX</t>
+  </si>
+  <si>
+    <t>B08XXVW5MD</t>
+  </si>
+  <si>
+    <t>B08HR9S2B7</t>
+  </si>
+  <si>
+    <t>B08D44WKC4</t>
+  </si>
+  <si>
+    <t>B096W97H18</t>
+  </si>
+  <si>
+    <t>B08H3J2YZ7</t>
+  </si>
+  <si>
+    <t>B08GD9MNZB</t>
+  </si>
+  <si>
+    <t>B0B6FYLJCD</t>
+  </si>
+  <si>
+    <t>B09L1VK89F</t>
+  </si>
+  <si>
+    <t>B08N79HM77</t>
+  </si>
+  <si>
+    <t>B08SSCPP6L</t>
+  </si>
+  <si>
+    <t>B09ZLRCH1H</t>
+  </si>
+  <si>
+    <t>B09DLZQNNC</t>
+  </si>
+  <si>
+    <t>B076ZTM95G</t>
+  </si>
+  <si>
+    <t>B01EUMX4EW</t>
+  </si>
+  <si>
+    <t>B09831S6Y9</t>
+  </si>
+  <si>
+    <t>B0BGLTNTCY</t>
+  </si>
+  <si>
+    <t>B07DK8N8JG</t>
+  </si>
+  <si>
+    <t>B09FQQG1GF</t>
+  </si>
+  <si>
+    <t>Buybox Price</t>
+  </si>
+  <si>
+    <t>FBA Fees</t>
+  </si>
+  <si>
+    <t>Variable Closing Fee</t>
+  </si>
+  <si>
+    <t>Referral Fee</t>
   </si>
 </sst>
 </file>
@@ -403,7 +1053,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(&quot;£&quot;* #,##0.00_);_(&quot;£&quot;* \(#,##0.00\);"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -566,8 +1216,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Aptos Narrow"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -768,6 +1443,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB0B3B2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -979,7 +1672,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1003,6 +1696,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="38" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1359,16 +2067,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11ED0CCA-A0F8-45AF-9C4E-84CC93FDAE05}">
-  <dimension ref="B2:C15"/>
+  <dimension ref="B2:M79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="2:3">
-      <c r="B2" t="s">
+    <row r="2" spans="2:3" s="11" customFormat="1">
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1407,17 +2115,263 @@
         <v>7</v>
       </c>
     </row>
+    <row r="12" spans="2:3">
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="13" spans="2:3">
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="2:3">
       <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" s="20" customFormat="1">
+      <c r="B19" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="C24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3">
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="C30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3">
+      <c r="C31" t="s">
         <v>9</v>
       </c>
-      <c r="C15" t="s">
-        <v>10</v>
+    </row>
+    <row r="33" spans="2:13">
+      <c r="B33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13">
+      <c r="B35" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+    </row>
+    <row r="36" spans="2:13">
+      <c r="B36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13">
+      <c r="C37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13">
+      <c r="C39" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13">
+      <c r="C40" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13">
+      <c r="C41" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13">
+      <c r="C42" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13">
+      <c r="C44" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13">
+      <c r="C45" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13">
+      <c r="C46" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13">
+      <c r="B48" t="s">
+        <v>23</v>
+      </c>
+      <c r="C48" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3">
+      <c r="B52" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3">
+      <c r="C53" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3">
+      <c r="C55" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3">
+      <c r="C56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3">
+      <c r="C57" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3">
+      <c r="C58" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3">
+      <c r="C60" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3">
+      <c r="C61" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3">
+      <c r="C62" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3">
+      <c r="B64" t="s">
+        <v>25</v>
+      </c>
+      <c r="C64" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3">
+      <c r="B66" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3">
+      <c r="B67" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3">
+      <c r="C68" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3">
+      <c r="C70" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3">
+      <c r="C71" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3">
+      <c r="C72" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3">
+      <c r="C73" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3">
+      <c r="C75" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3">
+      <c r="C76" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3">
+      <c r="C77" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3">
+      <c r="B79" t="s">
+        <v>29</v>
+      </c>
+      <c r="C79" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1444,105 +2398,105 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="F1" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="G1" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="J1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="K1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="L1" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="M1" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="N1" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="O1" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="P1" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="Q1" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="R1" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="S1" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="T1" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="U1" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="F2" s="1">
         <v>45458.219525462962</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="H2" s="2">
         <v>33.99</v>
       </c>
       <c r="I2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="J2">
         <v>819338022253</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="L2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="M2">
         <v>2</v>
@@ -1550,40 +2504,40 @@
     </row>
     <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="F3" s="1">
         <v>45458.219513888886</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="H3" s="2">
         <v>24.7</v>
       </c>
       <c r="I3" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="J3">
         <v>819338022253</v>
       </c>
       <c r="K3" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="M3">
         <v>2</v>
@@ -1591,40 +2545,40 @@
     </row>
     <row r="4" spans="1:21">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="F4" s="1">
         <v>45458.219513888886</v>
       </c>
       <c r="G4" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="H4" s="2">
         <v>34.99</v>
       </c>
       <c r="I4" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="J4">
         <v>819338022253</v>
       </c>
       <c r="K4" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="L4" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="M4">
         <v>2</v>
@@ -1632,40 +2586,40 @@
     </row>
     <row r="5" spans="1:21">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="F5" s="1">
         <v>45458.219513888886</v>
       </c>
       <c r="G5" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="H5" s="2">
         <v>34.99</v>
       </c>
       <c r="I5" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="J5">
         <v>819338022253</v>
       </c>
       <c r="K5" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="L5" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="M5">
         <v>2</v>
@@ -1673,40 +2627,40 @@
     </row>
     <row r="6" spans="1:21">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="F6" s="1">
         <v>45458.219513888886</v>
       </c>
       <c r="G6" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="H6" s="2">
         <v>23.49</v>
       </c>
       <c r="I6" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="J6">
         <v>819338022253</v>
       </c>
       <c r="K6" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="L6" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="M6">
         <v>2</v>
@@ -1714,40 +2668,40 @@
     </row>
     <row r="7" spans="1:21">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="E7" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="F7" s="1">
         <v>45458.219513888886</v>
       </c>
       <c r="G7" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="H7" s="2">
         <v>32.99</v>
       </c>
       <c r="I7" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="J7">
         <v>819338022253</v>
       </c>
       <c r="K7" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="L7" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="M7">
         <v>2</v>
@@ -1755,40 +2709,40 @@
     </row>
     <row r="8" spans="1:21">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="F8" s="1">
         <v>45458.219513888886</v>
       </c>
       <c r="G8" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="H8" s="2">
         <v>34.99</v>
       </c>
       <c r="I8" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="J8">
         <v>819338022253</v>
       </c>
       <c r="K8" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="L8" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="M8">
         <v>2</v>
@@ -1796,40 +2750,40 @@
     </row>
     <row r="9" spans="1:21">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="F9" s="1">
         <v>45458.219502314816</v>
       </c>
       <c r="G9" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="H9" s="2">
         <v>22.99</v>
       </c>
       <c r="I9" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="J9">
         <v>883929793624</v>
       </c>
       <c r="K9" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="L9" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="M9">
         <v>2</v>
@@ -1837,40 +2791,40 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="E10" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="F10" s="1">
         <v>45458.219502314816</v>
       </c>
       <c r="G10" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="H10" s="2">
         <v>25.58</v>
       </c>
       <c r="I10" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="J10">
         <v>850010758626</v>
       </c>
       <c r="K10" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="L10" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="M10">
         <v>2</v>
@@ -1878,40 +2832,40 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="F11" s="1">
         <v>45458.219502314816</v>
       </c>
       <c r="G11" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="H11" s="2">
         <v>34.99</v>
       </c>
       <c r="I11" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="J11">
         <v>819338022253</v>
       </c>
       <c r="K11" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="L11" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="M11">
         <v>2</v>
@@ -1919,40 +2873,40 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="B12" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="E12" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="F12" s="1">
         <v>45458.219502314816</v>
       </c>
       <c r="G12" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="H12" s="2">
         <v>20.5</v>
       </c>
       <c r="I12" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="J12">
         <v>883929793624</v>
       </c>
       <c r="K12" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="L12" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="M12">
         <v>2</v>
@@ -1960,40 +2914,40 @@
     </row>
     <row r="13" spans="1:21">
       <c r="A13" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="F13" s="1">
         <v>45458.219502314816</v>
       </c>
       <c r="G13" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="H13" s="2">
         <v>14.49</v>
       </c>
       <c r="I13" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="J13">
         <v>850010758626</v>
       </c>
       <c r="K13" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="L13" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="M13">
         <v>2</v>
@@ -2001,40 +2955,40 @@
     </row>
     <row r="14" spans="1:21">
       <c r="A14" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="B14" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="E14" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="F14" s="1">
         <v>45458.219502314816</v>
       </c>
       <c r="G14" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="H14" s="2">
         <v>21.99</v>
       </c>
       <c r="I14" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="J14">
         <v>883929793624</v>
       </c>
       <c r="K14" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="L14" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="M14">
         <v>2</v>
@@ -2042,40 +2996,40 @@
     </row>
     <row r="15" spans="1:21">
       <c r="A15" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="B15" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="E15" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="F15" s="1">
         <v>45458.219502314816</v>
       </c>
       <c r="G15" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="H15" s="2">
         <v>24.99</v>
       </c>
       <c r="I15" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="J15">
         <v>883929793624</v>
       </c>
       <c r="K15" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="L15" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="M15">
         <v>2</v>
@@ -2083,40 +3037,40 @@
     </row>
     <row r="16" spans="1:21">
       <c r="A16" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="B16" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="E16" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="F16" s="1">
         <v>45458.219502314816</v>
       </c>
       <c r="G16" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="H16" s="2">
         <v>15.94</v>
       </c>
       <c r="I16" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="J16">
         <v>850010758626</v>
       </c>
       <c r="K16" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="L16" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="M16">
         <v>2</v>
@@ -2124,40 +3078,40 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="B17" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="D17" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="E17" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="F17" s="1">
         <v>45458.219502314816</v>
       </c>
       <c r="G17" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="H17" s="2">
         <v>29.95</v>
       </c>
       <c r="I17" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="J17">
         <v>819338022253</v>
       </c>
       <c r="K17" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="L17" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="M17">
         <v>2</v>
@@ -2165,40 +3119,40 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="B18" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="E18" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="F18" s="1">
         <v>45458.219502314816</v>
       </c>
       <c r="G18" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="H18" s="2">
         <v>25</v>
       </c>
       <c r="I18" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="J18">
         <v>819338022253</v>
       </c>
       <c r="K18" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="L18" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="M18">
         <v>2</v>
@@ -2206,40 +3160,40 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="B19" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="D19" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="E19" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="F19" s="1">
         <v>45458.219502314816</v>
       </c>
       <c r="G19" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="H19" s="2">
         <v>17.5</v>
       </c>
       <c r="I19" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="J19">
         <v>819338022253</v>
       </c>
       <c r="K19" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="L19" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="M19">
         <v>2</v>
@@ -2247,40 +3201,40 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="B20" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="D20" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="E20" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="F20" s="1">
         <v>45458.219502314816</v>
       </c>
       <c r="G20" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="H20" s="2">
         <v>19.95</v>
       </c>
       <c r="I20" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="J20">
         <v>883929793624</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="L20" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="M20">
         <v>2</v>
@@ -2288,40 +3242,40 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="B21" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="D21" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="E21" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="F21" s="1">
         <v>45458.219502314816</v>
       </c>
       <c r="G21" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="H21" s="2">
         <v>25.95</v>
       </c>
       <c r="I21" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="J21">
         <v>819338022253</v>
       </c>
       <c r="K21" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="L21" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="M21">
         <v>2</v>
@@ -2337,216 +3291,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CAA3F50-48B7-44D9-AAD2-A4F4E6E0C00F}">
-  <dimension ref="A1:E12"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" customWidth="1"/>
-    <col min="4" max="4" width="31" customWidth="1"/>
-    <col min="5" max="5" width="27.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="D2" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B3" s="5">
-        <v>28.88</v>
-      </c>
-      <c r="C3" s="6">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="D3" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="E3" s="6">
-        <v>4.42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="D4" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="E4" s="6"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5" s="5">
-        <v>28.22</v>
-      </c>
-      <c r="C5" s="6">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="D5" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="E5" s="6">
-        <v>4.32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" s="5">
-        <v>28.88</v>
-      </c>
-      <c r="C6" s="6">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="D6" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="E6" s="6">
-        <v>4.42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B7" s="5">
-        <v>28.22</v>
-      </c>
-      <c r="C7" s="6">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="D7" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="E7" s="6">
-        <v>4.32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8" s="5">
-        <v>28.88</v>
-      </c>
-      <c r="C8" s="6">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="D8" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="E8" s="6">
-        <v>4.42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="D9" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B10" s="5">
-        <v>28.22</v>
-      </c>
-      <c r="C10" s="6">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="D10" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="E10" s="6">
-        <v>4.32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B11" s="5">
-        <v>28.88</v>
-      </c>
-      <c r="C11" s="6">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="D11" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="E11" s="6">
-        <v>4.42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="6">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="D12" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="E12" s="6"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BDF6D35-3ECF-4658-9F0D-CC4982F394A2}">
   <dimension ref="B7:K19"/>
   <sheetViews>
@@ -2590,21 +3334,21 @@
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I13" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="2:11">
       <c r="F14" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="2:11">
@@ -2614,7 +3358,7 @@
     </row>
     <row r="16" spans="2:11">
       <c r="F16" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="6:6">
@@ -2624,7 +3368,7 @@
     </row>
     <row r="18" spans="6:6">
       <c r="F18" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="6:6">
@@ -2637,7 +3381,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2B1B272-4B58-438B-94E5-403CF787A572}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2649,4 +3393,4766 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CAA3F50-48B7-44D9-AAD2-A4F4E6E0C00F}">
+  <dimension ref="A1:E196"/>
+  <sheetViews>
+    <sheetView topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="C172" sqref="C172"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" customWidth="1"/>
+    <col min="4" max="4" width="31" customWidth="1"/>
+    <col min="5" max="5" width="27.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="5">
+        <v>28.88</v>
+      </c>
+      <c r="C3" s="6">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E3" s="6">
+        <v>4.42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="5">
+        <v>28.22</v>
+      </c>
+      <c r="C4" s="6">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E4" s="6">
+        <v>4.32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" s="11">
+        <v>8.99</v>
+      </c>
+      <c r="C5" s="11">
+        <v>1.34</v>
+      </c>
+      <c r="D5" s="11">
+        <v>1.38</v>
+      </c>
+      <c r="E5" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="B6" s="11">
+        <v>3.65</v>
+      </c>
+      <c r="C6" s="11">
+        <v>1.34</v>
+      </c>
+      <c r="D6" s="11">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E6" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="B7" s="11">
+        <v>8.99</v>
+      </c>
+      <c r="C7" s="11">
+        <v>1.34</v>
+      </c>
+      <c r="D7" s="11">
+        <v>1.38</v>
+      </c>
+      <c r="E7" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="B8" s="11">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="C8" s="11">
+        <v>1.34</v>
+      </c>
+      <c r="D8" s="11">
+        <v>1.27</v>
+      </c>
+      <c r="E8" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="B9" s="11">
+        <v>9.0299999999999994</v>
+      </c>
+      <c r="C9" s="11">
+        <v>1.34</v>
+      </c>
+      <c r="D9" s="11">
+        <v>1.38</v>
+      </c>
+      <c r="E9" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B10" s="11">
+        <v>6.93</v>
+      </c>
+      <c r="C10" s="11">
+        <v>1.52</v>
+      </c>
+      <c r="D10" s="11">
+        <v>1.06</v>
+      </c>
+      <c r="E10" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B11" s="11">
+        <v>9.98</v>
+      </c>
+      <c r="C11" s="11">
+        <v>1.52</v>
+      </c>
+      <c r="D11" s="11">
+        <v>1.53</v>
+      </c>
+      <c r="E11" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B12" s="11">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="C12" s="11">
+        <v>1.52</v>
+      </c>
+      <c r="D12" s="11">
+        <v>0.38</v>
+      </c>
+      <c r="E12" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="B13" s="11">
+        <v>7.99</v>
+      </c>
+      <c r="C13" s="11">
+        <v>1.69</v>
+      </c>
+      <c r="D13" s="11">
+        <v>1.22</v>
+      </c>
+      <c r="E13" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B14" s="11">
+        <v>7.99</v>
+      </c>
+      <c r="C14" s="11">
+        <v>1.69</v>
+      </c>
+      <c r="D14" s="11">
+        <v>1.22</v>
+      </c>
+      <c r="E14" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="B15" s="11">
+        <v>34.979999999999997</v>
+      </c>
+      <c r="C15" s="11">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="D15" s="11">
+        <v>5.35</v>
+      </c>
+      <c r="E15" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B16" s="11">
+        <v>21.46</v>
+      </c>
+      <c r="C16" s="11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D16" s="11">
+        <v>3.28</v>
+      </c>
+      <c r="E16" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="B17" s="11">
+        <v>17.13</v>
+      </c>
+      <c r="C17" s="11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D17" s="11">
+        <v>2.62</v>
+      </c>
+      <c r="E17" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B18" s="11">
+        <v>67.64</v>
+      </c>
+      <c r="C18" s="11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D18" s="11">
+        <v>10.35</v>
+      </c>
+      <c r="E18" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="B19" s="11">
+        <v>9.99</v>
+      </c>
+      <c r="C19" s="11">
+        <v>2.36</v>
+      </c>
+      <c r="D19" s="11">
+        <v>1.53</v>
+      </c>
+      <c r="E19" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="B20" s="11">
+        <v>9.08</v>
+      </c>
+      <c r="C20" s="11">
+        <v>2.36</v>
+      </c>
+      <c r="D20" s="11">
+        <v>1.39</v>
+      </c>
+      <c r="E20" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B21" s="11">
+        <v>9.2899999999999991</v>
+      </c>
+      <c r="C21" s="11">
+        <v>2.36</v>
+      </c>
+      <c r="D21" s="11">
+        <v>1.42</v>
+      </c>
+      <c r="E21" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B22" s="11">
+        <v>4.26</v>
+      </c>
+      <c r="C22" s="11">
+        <v>2.36</v>
+      </c>
+      <c r="D22" s="11">
+        <v>0.65</v>
+      </c>
+      <c r="E22" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="B23" s="11">
+        <v>3.29</v>
+      </c>
+      <c r="C23" s="11">
+        <v>2.36</v>
+      </c>
+      <c r="D23" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="E23" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="B24" s="11">
+        <v>7.66</v>
+      </c>
+      <c r="C24" s="11">
+        <v>2.59</v>
+      </c>
+      <c r="D24" s="11">
+        <v>1.17</v>
+      </c>
+      <c r="E24" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B25" s="11">
+        <v>7.64</v>
+      </c>
+      <c r="C25" s="11">
+        <v>2.59</v>
+      </c>
+      <c r="D25" s="11">
+        <v>1.17</v>
+      </c>
+      <c r="E25" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="B26" s="11">
+        <v>6.56</v>
+      </c>
+      <c r="C26" s="11">
+        <v>2.59</v>
+      </c>
+      <c r="D26" s="11">
+        <v>1</v>
+      </c>
+      <c r="E26" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B27" s="11">
+        <v>5.29</v>
+      </c>
+      <c r="C27" s="11">
+        <v>2.59</v>
+      </c>
+      <c r="D27" s="11">
+        <v>0.81</v>
+      </c>
+      <c r="E27" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="B28" s="11">
+        <v>6.76</v>
+      </c>
+      <c r="C28" s="11">
+        <v>2.59</v>
+      </c>
+      <c r="D28" s="11">
+        <v>1.03</v>
+      </c>
+      <c r="E28" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="B29" s="11">
+        <v>8.94</v>
+      </c>
+      <c r="C29" s="11">
+        <v>2.59</v>
+      </c>
+      <c r="D29" s="11">
+        <v>1.37</v>
+      </c>
+      <c r="E29" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="B30" s="11">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="C30" s="11">
+        <v>2.59</v>
+      </c>
+      <c r="D30" s="11">
+        <v>0.34</v>
+      </c>
+      <c r="E30" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="B31" s="11">
+        <v>3.17</v>
+      </c>
+      <c r="C31" s="11">
+        <v>2.59</v>
+      </c>
+      <c r="D31" s="11">
+        <v>0.49</v>
+      </c>
+      <c r="E31" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="B32" s="11">
+        <v>6.38</v>
+      </c>
+      <c r="C32" s="11">
+        <v>2.59</v>
+      </c>
+      <c r="D32" s="11">
+        <v>0.98</v>
+      </c>
+      <c r="E32" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B33" s="11">
+        <v>8.98</v>
+      </c>
+      <c r="C33" s="11">
+        <v>2.59</v>
+      </c>
+      <c r="D33" s="11">
+        <v>1.37</v>
+      </c>
+      <c r="E33" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="B34" s="11">
+        <v>8.75</v>
+      </c>
+      <c r="C34" s="11">
+        <v>2.59</v>
+      </c>
+      <c r="D34" s="11">
+        <v>1.34</v>
+      </c>
+      <c r="E34" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="B35" s="11">
+        <v>6.59</v>
+      </c>
+      <c r="C35" s="11">
+        <v>2.59</v>
+      </c>
+      <c r="D35" s="11">
+        <v>1.01</v>
+      </c>
+      <c r="E35" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="B36" s="11">
+        <v>1.29</v>
+      </c>
+      <c r="C36" s="11">
+        <v>2.59</v>
+      </c>
+      <c r="D36" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="E36" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="B37" s="11">
+        <v>1.43</v>
+      </c>
+      <c r="C37" s="11">
+        <v>2.59</v>
+      </c>
+      <c r="D37" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="E37" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="B38" s="11">
+        <v>8.5</v>
+      </c>
+      <c r="C38" s="11">
+        <v>2.61</v>
+      </c>
+      <c r="D38" s="11">
+        <v>1.3</v>
+      </c>
+      <c r="E38" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="B39" s="11">
+        <v>5.89</v>
+      </c>
+      <c r="C39" s="11">
+        <v>2.61</v>
+      </c>
+      <c r="D39" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="E39" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="B40" s="11">
+        <v>3.02</v>
+      </c>
+      <c r="C40" s="11">
+        <v>2.61</v>
+      </c>
+      <c r="D40" s="11">
+        <v>0.46</v>
+      </c>
+      <c r="E40" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="B41" s="11">
+        <v>6.05</v>
+      </c>
+      <c r="C41" s="11">
+        <v>2.64</v>
+      </c>
+      <c r="D41" s="11">
+        <v>0.93</v>
+      </c>
+      <c r="E41" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="B42" s="11">
+        <v>9.58</v>
+      </c>
+      <c r="C42" s="11">
+        <v>2.64</v>
+      </c>
+      <c r="D42" s="11">
+        <v>1.47</v>
+      </c>
+      <c r="E42" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="B43" s="11">
+        <v>9.98</v>
+      </c>
+      <c r="C43" s="11">
+        <v>2.64</v>
+      </c>
+      <c r="D43" s="11">
+        <v>1.53</v>
+      </c>
+      <c r="E43" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="B44" s="11">
+        <v>9.99</v>
+      </c>
+      <c r="C44" s="11">
+        <v>2.64</v>
+      </c>
+      <c r="D44" s="11">
+        <v>1.53</v>
+      </c>
+      <c r="E44" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="B45" s="11">
+        <v>5.98</v>
+      </c>
+      <c r="C45" s="11">
+        <v>2.64</v>
+      </c>
+      <c r="D45" s="11">
+        <v>0.91</v>
+      </c>
+      <c r="E45" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="B46" s="11">
+        <v>7.72</v>
+      </c>
+      <c r="C46" s="11">
+        <v>2.64</v>
+      </c>
+      <c r="D46" s="11">
+        <v>1.18</v>
+      </c>
+      <c r="E46" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="B47" s="11">
+        <v>8.91</v>
+      </c>
+      <c r="C47" s="11">
+        <v>2.64</v>
+      </c>
+      <c r="D47" s="11">
+        <v>1.36</v>
+      </c>
+      <c r="E47" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="B48" s="11">
+        <v>17.8</v>
+      </c>
+      <c r="C48" s="11">
+        <v>2.73</v>
+      </c>
+      <c r="D48" s="11">
+        <v>2.72</v>
+      </c>
+      <c r="E48" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="B49" s="11">
+        <v>12.99</v>
+      </c>
+      <c r="C49" s="11">
+        <v>2.73</v>
+      </c>
+      <c r="D49" s="11">
+        <v>1.99</v>
+      </c>
+      <c r="E49" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="B50" s="11">
+        <v>0</v>
+      </c>
+      <c r="C50" s="11">
+        <v>2.73</v>
+      </c>
+      <c r="D50" s="11">
+        <v>0</v>
+      </c>
+      <c r="E50" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="B51" s="11">
+        <v>89.99</v>
+      </c>
+      <c r="C51" s="11">
+        <v>2.83</v>
+      </c>
+      <c r="D51" s="11">
+        <v>13.77</v>
+      </c>
+      <c r="E51" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="B52" s="11">
+        <v>38.590000000000003</v>
+      </c>
+      <c r="C52" s="11">
+        <v>2.95</v>
+      </c>
+      <c r="D52" s="11">
+        <v>5.9</v>
+      </c>
+      <c r="E52" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="B53" s="11">
+        <v>11.13</v>
+      </c>
+      <c r="C53" s="11">
+        <v>2.95</v>
+      </c>
+      <c r="D53" s="11">
+        <v>1.7</v>
+      </c>
+      <c r="E53" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="B54" s="11">
+        <v>10.08</v>
+      </c>
+      <c r="C54" s="11">
+        <v>2.95</v>
+      </c>
+      <c r="D54" s="11">
+        <v>1.54</v>
+      </c>
+      <c r="E54" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="B55" s="11">
+        <v>16.989999999999998</v>
+      </c>
+      <c r="C55" s="11">
+        <v>2.95</v>
+      </c>
+      <c r="D55" s="11">
+        <v>2.6</v>
+      </c>
+      <c r="E55" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="B56" s="11">
+        <v>18.989999999999998</v>
+      </c>
+      <c r="C56" s="11">
+        <v>2.95</v>
+      </c>
+      <c r="D56" s="11">
+        <v>2.91</v>
+      </c>
+      <c r="E56" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="B57" s="11">
+        <v>0</v>
+      </c>
+      <c r="C57" s="11">
+        <v>2.95</v>
+      </c>
+      <c r="D57" s="11">
+        <v>0</v>
+      </c>
+      <c r="E57" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="B58" s="11">
+        <v>11.58</v>
+      </c>
+      <c r="C58" s="11">
+        <v>3.01</v>
+      </c>
+      <c r="D58" s="11">
+        <v>1.77</v>
+      </c>
+      <c r="E58" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="B59" s="11">
+        <v>11.58</v>
+      </c>
+      <c r="C59" s="11">
+        <v>3.01</v>
+      </c>
+      <c r="D59" s="11">
+        <v>1.77</v>
+      </c>
+      <c r="E59" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="B60" s="11">
+        <v>11.42</v>
+      </c>
+      <c r="C60" s="11">
+        <v>3.01</v>
+      </c>
+      <c r="D60" s="11">
+        <v>1.75</v>
+      </c>
+      <c r="E60" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="B61" s="11">
+        <v>0</v>
+      </c>
+      <c r="C61" s="11">
+        <v>3.01</v>
+      </c>
+      <c r="D61" s="11">
+        <v>0</v>
+      </c>
+      <c r="E61" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="B62" s="11">
+        <v>10.09</v>
+      </c>
+      <c r="C62" s="11">
+        <v>3.01</v>
+      </c>
+      <c r="D62" s="11">
+        <v>1.54</v>
+      </c>
+      <c r="E62" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="B63" s="11">
+        <v>29.06</v>
+      </c>
+      <c r="C63" s="11">
+        <v>3.01</v>
+      </c>
+      <c r="D63" s="11">
+        <v>4.45</v>
+      </c>
+      <c r="E63" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="B64" s="11">
+        <v>0</v>
+      </c>
+      <c r="C64" s="11">
+        <v>3.01</v>
+      </c>
+      <c r="D64" s="11">
+        <v>0</v>
+      </c>
+      <c r="E64" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="B65" s="11">
+        <v>0</v>
+      </c>
+      <c r="C65" s="11">
+        <v>3.01</v>
+      </c>
+      <c r="D65" s="11">
+        <v>0</v>
+      </c>
+      <c r="E65" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="B66" s="11">
+        <v>15.66</v>
+      </c>
+      <c r="C66" s="11">
+        <v>3.01</v>
+      </c>
+      <c r="D66" s="11">
+        <v>2.4</v>
+      </c>
+      <c r="E66" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B67" s="11">
+        <v>15.19</v>
+      </c>
+      <c r="C67" s="11">
+        <v>3.01</v>
+      </c>
+      <c r="D67" s="11">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="E67" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="B68" s="11">
+        <v>29.11</v>
+      </c>
+      <c r="C68" s="11">
+        <v>3.01</v>
+      </c>
+      <c r="D68" s="11">
+        <v>4.45</v>
+      </c>
+      <c r="E68" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="B69" s="11">
+        <v>0</v>
+      </c>
+      <c r="C69" s="11">
+        <v>3.05</v>
+      </c>
+      <c r="D69" s="11">
+        <v>0</v>
+      </c>
+      <c r="E69" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="B70" s="11">
+        <v>10.91</v>
+      </c>
+      <c r="C70" s="11">
+        <v>3.05</v>
+      </c>
+      <c r="D70" s="11">
+        <v>1.67</v>
+      </c>
+      <c r="E70" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="B71" s="11">
+        <v>10.49</v>
+      </c>
+      <c r="C71" s="11">
+        <v>3.05</v>
+      </c>
+      <c r="D71" s="11">
+        <v>1.61</v>
+      </c>
+      <c r="E71" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="B72" s="11">
+        <v>11.68</v>
+      </c>
+      <c r="C72" s="11">
+        <v>3.05</v>
+      </c>
+      <c r="D72" s="11">
+        <v>1.79</v>
+      </c>
+      <c r="E72" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="B73" s="11">
+        <v>9.4700000000000006</v>
+      </c>
+      <c r="C73" s="11">
+        <v>3.05</v>
+      </c>
+      <c r="D73" s="11">
+        <v>1.45</v>
+      </c>
+      <c r="E73" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="B74" s="11">
+        <v>49.99</v>
+      </c>
+      <c r="C74" s="11">
+        <v>3.05</v>
+      </c>
+      <c r="D74" s="11">
+        <v>7.65</v>
+      </c>
+      <c r="E74" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="B75" s="11">
+        <v>14.09</v>
+      </c>
+      <c r="C75" s="11">
+        <v>3.05</v>
+      </c>
+      <c r="D75" s="11">
+        <v>2.16</v>
+      </c>
+      <c r="E75" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="B76" s="11">
+        <v>16.14</v>
+      </c>
+      <c r="C76" s="11">
+        <v>3.05</v>
+      </c>
+      <c r="D76" s="11">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="E76" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="B77" s="11">
+        <v>11.66</v>
+      </c>
+      <c r="C77" s="11">
+        <v>3.05</v>
+      </c>
+      <c r="D77" s="11">
+        <v>1.78</v>
+      </c>
+      <c r="E77" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="B78" s="11">
+        <v>12.14</v>
+      </c>
+      <c r="C78" s="11">
+        <v>3.05</v>
+      </c>
+      <c r="D78" s="11">
+        <v>1.86</v>
+      </c>
+      <c r="E78" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="B79" s="11">
+        <v>11.67</v>
+      </c>
+      <c r="C79" s="11">
+        <v>3.05</v>
+      </c>
+      <c r="D79" s="11">
+        <v>1.79</v>
+      </c>
+      <c r="E79" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="B80" s="11">
+        <v>10.48</v>
+      </c>
+      <c r="C80" s="11">
+        <v>3.05</v>
+      </c>
+      <c r="D80" s="11">
+        <v>1.6</v>
+      </c>
+      <c r="E80" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="B81" s="11">
+        <v>9.99</v>
+      </c>
+      <c r="C81" s="11">
+        <v>3.16</v>
+      </c>
+      <c r="D81" s="11">
+        <v>1.53</v>
+      </c>
+      <c r="E81" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="B82" s="11">
+        <v>9.2899999999999991</v>
+      </c>
+      <c r="C82" s="11">
+        <v>3.37</v>
+      </c>
+      <c r="D82" s="11">
+        <v>0.76</v>
+      </c>
+      <c r="E82" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="B83" s="11">
+        <v>40.47</v>
+      </c>
+      <c r="C83" s="11">
+        <v>3.6</v>
+      </c>
+      <c r="D83" s="11">
+        <v>6.19</v>
+      </c>
+      <c r="E83" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="B84" s="11">
+        <v>20.48</v>
+      </c>
+      <c r="C84" s="11">
+        <v>3.6</v>
+      </c>
+      <c r="D84" s="11">
+        <v>3.13</v>
+      </c>
+      <c r="E84" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="B85" s="11">
+        <v>15.91</v>
+      </c>
+      <c r="C85" s="11">
+        <v>3.6</v>
+      </c>
+      <c r="D85" s="11">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="E85" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="B86" s="11">
+        <v>20.56</v>
+      </c>
+      <c r="C86" s="11">
+        <v>3.6</v>
+      </c>
+      <c r="D86" s="11">
+        <v>3.15</v>
+      </c>
+      <c r="E86" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="B87" s="11">
+        <v>45</v>
+      </c>
+      <c r="C87" s="11">
+        <v>3.6</v>
+      </c>
+      <c r="D87" s="11">
+        <v>6.89</v>
+      </c>
+      <c r="E87" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="B88" s="11">
+        <v>50</v>
+      </c>
+      <c r="C88" s="11">
+        <v>3.6</v>
+      </c>
+      <c r="D88" s="11">
+        <v>7.65</v>
+      </c>
+      <c r="E88" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="B89" s="11">
+        <v>50</v>
+      </c>
+      <c r="C89" s="11">
+        <v>3.6</v>
+      </c>
+      <c r="D89" s="11">
+        <v>7.65</v>
+      </c>
+      <c r="E89" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="B90" s="11">
+        <v>13.98</v>
+      </c>
+      <c r="C90" s="11">
+        <v>3.9</v>
+      </c>
+      <c r="D90" s="11">
+        <v>2.14</v>
+      </c>
+      <c r="E90" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="B91" s="11">
+        <v>21.79</v>
+      </c>
+      <c r="C91" s="11">
+        <v>3.9</v>
+      </c>
+      <c r="D91" s="11">
+        <v>3.33</v>
+      </c>
+      <c r="E91" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="B92" s="11">
+        <v>79.989999999999995</v>
+      </c>
+      <c r="C92" s="11">
+        <v>3.9</v>
+      </c>
+      <c r="D92" s="11">
+        <v>12.24</v>
+      </c>
+      <c r="E92" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="B93" s="11">
+        <v>21.38</v>
+      </c>
+      <c r="C93" s="11">
+        <v>5.65</v>
+      </c>
+      <c r="D93" s="11">
+        <v>3.27</v>
+      </c>
+      <c r="E93" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="B94" s="11">
+        <v>14.58</v>
+      </c>
+      <c r="C94" s="11">
+        <v>5.65</v>
+      </c>
+      <c r="D94" s="11">
+        <v>2.23</v>
+      </c>
+      <c r="E94" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="B95" s="11">
+        <v>10.61</v>
+      </c>
+      <c r="C95" s="11">
+        <v>5.96</v>
+      </c>
+      <c r="D95" s="11">
+        <v>1.62</v>
+      </c>
+      <c r="E95" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="B96" s="11">
+        <v>6.49</v>
+      </c>
+      <c r="C96" s="11">
+        <v>5.96</v>
+      </c>
+      <c r="D96" s="11">
+        <v>0.99</v>
+      </c>
+      <c r="E96" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="25.5">
+      <c r="A97" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="B97" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="C97" s="18">
+        <v>3.01</v>
+      </c>
+      <c r="D97" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="E97" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="25.5">
+      <c r="A98" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="B98" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="C98" s="18">
+        <v>3.9</v>
+      </c>
+      <c r="D98" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="E98" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="25.5">
+      <c r="A99" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="B99" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="C99" s="18">
+        <v>1.89</v>
+      </c>
+      <c r="D99" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="E99" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="25.5">
+      <c r="A100" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="B100" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="C100" s="18">
+        <v>1.71</v>
+      </c>
+      <c r="D100" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="E100" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="25.5">
+      <c r="A101" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="B101" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="C101" s="18">
+        <v>1.89</v>
+      </c>
+      <c r="D101" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="E101" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="25.5">
+      <c r="A102" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="B102" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="C102" s="18">
+        <v>3.58</v>
+      </c>
+      <c r="D102" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="E102" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="25.5">
+      <c r="A103" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="B103" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="C103" s="18">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="D103" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="E103" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="25.5">
+      <c r="A104" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="B104" s="18">
+        <v>3.99</v>
+      </c>
+      <c r="C104" s="18">
+        <v>1.52</v>
+      </c>
+      <c r="D104" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="E104" s="18">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="B105" s="16">
+        <v>4.99</v>
+      </c>
+      <c r="C105" s="16">
+        <v>2.59</v>
+      </c>
+      <c r="D105" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E105" s="16">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="B106" s="16">
+        <v>5.47</v>
+      </c>
+      <c r="C106" s="16">
+        <v>2.59</v>
+      </c>
+      <c r="D106" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E106" s="16">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="B107" s="16">
+        <v>6.9</v>
+      </c>
+      <c r="C107" s="16">
+        <v>1.52</v>
+      </c>
+      <c r="D107" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E107" s="16">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="B108" s="16">
+        <v>6.99</v>
+      </c>
+      <c r="C108" s="16">
+        <v>1.69</v>
+      </c>
+      <c r="D108" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E108" s="16">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="B109" s="16">
+        <v>7.99</v>
+      </c>
+      <c r="C109" s="16">
+        <v>2.36</v>
+      </c>
+      <c r="D109" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E109" s="16">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="B110" s="16">
+        <v>7.99</v>
+      </c>
+      <c r="C110" s="16">
+        <v>1.52</v>
+      </c>
+      <c r="D110" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E110" s="16">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="B111" s="16">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="C111" s="16">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="D111" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E111" s="16">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="25.5">
+      <c r="A112" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="B112" s="16">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="C112" s="16">
+        <v>2.61</v>
+      </c>
+      <c r="D112" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="E112" s="16">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="B113" s="16">
+        <v>9.99</v>
+      </c>
+      <c r="C113" s="16">
+        <v>1.34</v>
+      </c>
+      <c r="D113" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E113" s="16">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="B114" s="16">
+        <v>9.98</v>
+      </c>
+      <c r="C114" s="16">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="D114" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E114" s="16">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="B115" s="16">
+        <v>10.11</v>
+      </c>
+      <c r="C115" s="16">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="D115" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E115" s="16">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B116" s="16">
+        <v>10.25</v>
+      </c>
+      <c r="C116" s="16">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="D116" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E116" s="16">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="B117" s="16">
+        <v>12.95</v>
+      </c>
+      <c r="C117" s="16">
+        <v>1.71</v>
+      </c>
+      <c r="D117" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E117" s="16">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="B118" s="16">
+        <v>12.95</v>
+      </c>
+      <c r="C118" s="16">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="D118" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E118" s="16">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="B119" s="16">
+        <v>12.95</v>
+      </c>
+      <c r="C119" s="16">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="D119" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E119" s="16">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="B120" s="16">
+        <v>13.68</v>
+      </c>
+      <c r="C120" s="16">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="D120" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E120" s="16">
+        <v>2.09</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="B121" s="16">
+        <v>13.8</v>
+      </c>
+      <c r="C121" s="16">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="D121" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E121" s="16">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="B122" s="16">
+        <v>14.53</v>
+      </c>
+      <c r="C122" s="16">
+        <v>3.9</v>
+      </c>
+      <c r="D122" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E122" s="16">
+        <v>2.2200000000000002</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="B123" s="16">
+        <v>14.99</v>
+      </c>
+      <c r="C123" s="16">
+        <v>2.95</v>
+      </c>
+      <c r="D123" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E123" s="16">
+        <v>2.29</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="B124" s="16">
+        <v>14.99</v>
+      </c>
+      <c r="C124" s="16">
+        <v>1.89</v>
+      </c>
+      <c r="D124" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E124" s="16">
+        <v>2.29</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="B125" s="16">
+        <v>14.99</v>
+      </c>
+      <c r="C125" s="16">
+        <v>1.89</v>
+      </c>
+      <c r="D125" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E125" s="16">
+        <v>2.29</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="B126" s="16">
+        <v>15.33</v>
+      </c>
+      <c r="C126" s="16">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="D126" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E126" s="16">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="B127" s="16">
+        <v>15.99</v>
+      </c>
+      <c r="C127" s="16">
+        <v>1.89</v>
+      </c>
+      <c r="D127" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E127" s="16">
+        <v>2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="B128" s="16">
+        <v>16</v>
+      </c>
+      <c r="C128" s="16">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="D128" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E128" s="16">
+        <v>2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="B129" s="16">
+        <v>16.95</v>
+      </c>
+      <c r="C129" s="16">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="D129" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E129" s="16">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="B130" s="16">
+        <v>16.989999999999998</v>
+      </c>
+      <c r="C130" s="16">
+        <v>1.89</v>
+      </c>
+      <c r="D130" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E130" s="16">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="B131" s="16">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="C131" s="16">
+        <v>1.89</v>
+      </c>
+      <c r="D131" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E131" s="16">
+        <v>2.66</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="B132" s="16">
+        <v>17.61</v>
+      </c>
+      <c r="C132" s="16">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="D132" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E132" s="16">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="B133" s="16">
+        <v>18.2</v>
+      </c>
+      <c r="C133" s="16">
+        <v>3.37</v>
+      </c>
+      <c r="D133" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E133" s="16">
+        <v>2.78</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="B134" s="16">
+        <v>18.5</v>
+      </c>
+      <c r="C134" s="16">
+        <v>1.89</v>
+      </c>
+      <c r="D134" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E134" s="16">
+        <v>2.83</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="B135" s="16">
+        <v>19.5</v>
+      </c>
+      <c r="C135" s="16">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="D135" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E135" s="16">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="B136" s="16">
+        <v>19.940000000000001</v>
+      </c>
+      <c r="C136" s="16">
+        <v>1.89</v>
+      </c>
+      <c r="D136" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E136" s="16">
+        <v>3.05</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="B137" s="16">
+        <v>19.95</v>
+      </c>
+      <c r="C137" s="16">
+        <v>1.89</v>
+      </c>
+      <c r="D137" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E137" s="16">
+        <v>3.05</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="B138" s="16">
+        <v>20.79</v>
+      </c>
+      <c r="C138" s="16">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="D138" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E138" s="16">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="25.5">
+      <c r="A139" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="B139" s="16">
+        <v>21.95</v>
+      </c>
+      <c r="C139" s="16">
+        <v>1.89</v>
+      </c>
+      <c r="D139" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="E139" s="16">
+        <v>3.36</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="B140" s="16">
+        <v>22.95</v>
+      </c>
+      <c r="C140" s="16">
+        <v>1.71</v>
+      </c>
+      <c r="D140" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E140" s="16">
+        <v>3.51</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="B141" s="16">
+        <v>22.95</v>
+      </c>
+      <c r="C141" s="16">
+        <v>1.89</v>
+      </c>
+      <c r="D141" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E141" s="16">
+        <v>3.51</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="B142" s="16">
+        <v>23.49</v>
+      </c>
+      <c r="C142" s="16">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="D142" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E142" s="16">
+        <v>3.59</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="B143" s="16">
+        <v>23.74</v>
+      </c>
+      <c r="C143" s="16">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="D143" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E143" s="16">
+        <v>3.63</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="25.5">
+      <c r="A144" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="B144" s="16">
+        <v>23.99</v>
+      </c>
+      <c r="C144" s="16">
+        <v>3.05</v>
+      </c>
+      <c r="D144" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="E144" s="16">
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="B145" s="16">
+        <v>24.49</v>
+      </c>
+      <c r="C145" s="16">
+        <v>1.89</v>
+      </c>
+      <c r="D145" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E145" s="16">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="B146" s="16">
+        <v>24.65</v>
+      </c>
+      <c r="C146" s="16">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="D146" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E146" s="16">
+        <v>3.77</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="B147" s="16">
+        <v>24.95</v>
+      </c>
+      <c r="C147" s="16">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="D147" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E147" s="16">
+        <v>3.82</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="B148" s="16">
+        <v>24.95</v>
+      </c>
+      <c r="C148" s="16">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="D148" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E148" s="16">
+        <v>3.82</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="B149" s="16">
+        <v>24.99</v>
+      </c>
+      <c r="C149" s="16">
+        <v>1.89</v>
+      </c>
+      <c r="D149" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E149" s="16">
+        <v>3.82</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="B150" s="16">
+        <v>25</v>
+      </c>
+      <c r="C150" s="16">
+        <v>1.71</v>
+      </c>
+      <c r="D150" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E150" s="16">
+        <v>3.83</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="B151" s="16">
+        <v>25.85</v>
+      </c>
+      <c r="C151" s="16">
+        <v>1.89</v>
+      </c>
+      <c r="D151" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E151" s="16">
+        <v>3.96</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="B152" s="16">
+        <v>25.99</v>
+      </c>
+      <c r="C152" s="16">
+        <v>1.71</v>
+      </c>
+      <c r="D152" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E152" s="16">
+        <v>3.98</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="B153" s="16">
+        <v>26.9</v>
+      </c>
+      <c r="C153" s="16">
+        <v>1.71</v>
+      </c>
+      <c r="D153" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E153" s="16">
+        <v>4.12</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="B154" s="16">
+        <v>27.5</v>
+      </c>
+      <c r="C154" s="16">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="D154" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E154" s="16">
+        <v>4.21</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="B155" s="16">
+        <v>29.2</v>
+      </c>
+      <c r="C155" s="16">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="D155" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E155" s="16">
+        <v>4.47</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="B156" s="16">
+        <v>29.81</v>
+      </c>
+      <c r="C156" s="16">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="D156" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E156" s="16">
+        <v>4.5599999999999996</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="B157" s="16">
+        <v>29.99</v>
+      </c>
+      <c r="C157" s="16">
+        <v>1.89</v>
+      </c>
+      <c r="D157" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E157" s="16">
+        <v>4.59</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="B158" s="16">
+        <v>31.98</v>
+      </c>
+      <c r="C158" s="16">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="D158" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E158" s="16">
+        <v>4.8899999999999997</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="B159" s="16">
+        <v>34.35</v>
+      </c>
+      <c r="C159" s="16">
+        <v>1.71</v>
+      </c>
+      <c r="D159" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E159" s="16">
+        <v>5.26</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="B160" s="16">
+        <v>34.950000000000003</v>
+      </c>
+      <c r="C160" s="16">
+        <v>2.95</v>
+      </c>
+      <c r="D160" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E160" s="16">
+        <v>5.35</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="25.5">
+      <c r="A161" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="B161" s="16">
+        <v>36.15</v>
+      </c>
+      <c r="C161" s="16">
+        <v>2.95</v>
+      </c>
+      <c r="D161" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="E161" s="16">
+        <v>5.54</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="B162" s="16">
+        <v>38</v>
+      </c>
+      <c r="C162" s="16">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="D162" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E162" s="16">
+        <v>5.81</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="B163" s="16">
+        <v>37.99</v>
+      </c>
+      <c r="C163" s="16">
+        <v>1.71</v>
+      </c>
+      <c r="D163" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E163" s="16">
+        <v>5.81</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="B164" s="16">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="C164" s="16">
+        <v>1.89</v>
+      </c>
+      <c r="D164" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E164" s="16">
+        <v>5.93</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="B165" s="16">
+        <v>39.49</v>
+      </c>
+      <c r="C165" s="16">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="D165" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E165" s="16">
+        <v>6.04</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="B166" s="16">
+        <v>39.770000000000003</v>
+      </c>
+      <c r="C166" s="16">
+        <v>1.89</v>
+      </c>
+      <c r="D166" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E166" s="16">
+        <v>6.08</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="25.5">
+      <c r="A167" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="B167" s="16">
+        <v>47.97</v>
+      </c>
+      <c r="C167" s="16">
+        <v>3.37</v>
+      </c>
+      <c r="D167" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="E167" s="16">
+        <v>7.34</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="B168" s="16">
+        <v>49.99</v>
+      </c>
+      <c r="C168" s="16">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="D168" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E168" s="16">
+        <v>7.65</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="B169" s="16">
+        <v>49.99</v>
+      </c>
+      <c r="C169" s="16">
+        <v>1.89</v>
+      </c>
+      <c r="D169" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E169" s="16">
+        <v>7.65</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="B170" s="16">
+        <v>50.99</v>
+      </c>
+      <c r="C170" s="16">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="D170" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E170" s="16">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="25.5">
+      <c r="A171" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="B171" s="16">
+        <v>52.98</v>
+      </c>
+      <c r="C171" s="16">
+        <v>6.03</v>
+      </c>
+      <c r="D171" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="E171" s="16">
+        <v>8.11</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="B172" s="16">
+        <v>53.99</v>
+      </c>
+      <c r="C172" s="16">
+        <v>3.9</v>
+      </c>
+      <c r="D172" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E172" s="16">
+        <v>8.26</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="B173" s="16">
+        <v>55.17</v>
+      </c>
+      <c r="C173" s="16">
+        <v>1.89</v>
+      </c>
+      <c r="D173" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E173" s="16">
+        <v>8.44</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="25.5">
+      <c r="A174" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="B174" s="16">
+        <v>55.49</v>
+      </c>
+      <c r="C174" s="16">
+        <v>3.33</v>
+      </c>
+      <c r="D174" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="E174" s="16">
+        <v>8.49</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="B175" s="16">
+        <v>55.54</v>
+      </c>
+      <c r="C175" s="16">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="D175" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E175" s="16">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="B176" s="16">
+        <v>56.13</v>
+      </c>
+      <c r="C176" s="16">
+        <v>1.89</v>
+      </c>
+      <c r="D176" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E176" s="16">
+        <v>8.59</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="B177" s="16">
+        <v>59.16</v>
+      </c>
+      <c r="C177" s="16">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="D177" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E177" s="16">
+        <v>9.0500000000000007</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="B178" s="16">
+        <v>74.95</v>
+      </c>
+      <c r="C178" s="16">
+        <v>3.11</v>
+      </c>
+      <c r="D178" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E178" s="16">
+        <v>11.46</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="25.5">
+      <c r="A179" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="B179" s="16">
+        <v>79.98</v>
+      </c>
+      <c r="C179" s="16">
+        <v>6.17</v>
+      </c>
+      <c r="D179" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="E179" s="16">
+        <v>12.24</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="25.5">
+      <c r="A180" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="B180" s="16">
+        <v>79.989999999999995</v>
+      </c>
+      <c r="C180" s="16">
+        <v>3.11</v>
+      </c>
+      <c r="D180" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="E180" s="16">
+        <v>12.24</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="B181" s="16">
+        <v>80.989999999999995</v>
+      </c>
+      <c r="C181" s="16">
+        <v>3.33</v>
+      </c>
+      <c r="D181" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E181" s="16">
+        <v>12.39</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="B182" s="16">
+        <v>101.95</v>
+      </c>
+      <c r="C182" s="16">
+        <v>2.73</v>
+      </c>
+      <c r="D182" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E182" s="16">
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="25.5">
+      <c r="A183" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="B183" s="16">
+        <v>227.58</v>
+      </c>
+      <c r="C183" s="16">
+        <v>3.58</v>
+      </c>
+      <c r="D183" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="E183" s="16">
+        <v>16.25</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="B184" s="16">
+        <v>232.32</v>
+      </c>
+      <c r="C184" s="16">
+        <v>5.96</v>
+      </c>
+      <c r="D184" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E184" s="16">
+        <v>18.96</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="25.5">
+      <c r="A185" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="B185" s="16">
+        <v>315.33</v>
+      </c>
+      <c r="C185" s="16">
+        <v>3.68</v>
+      </c>
+      <c r="D185" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="E185" s="16">
+        <v>25.73</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="B186" s="16">
+        <v>349.99</v>
+      </c>
+      <c r="C186" s="16">
+        <v>4</v>
+      </c>
+      <c r="D186" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E186" s="16">
+        <v>28.56</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="B187" s="16">
+        <v>190.5</v>
+      </c>
+      <c r="C187" s="16">
+        <v>11.69</v>
+      </c>
+      <c r="D187" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E187" s="16">
+        <v>29.14</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="B188" s="16">
+        <v>359.5</v>
+      </c>
+      <c r="C188" s="16">
+        <v>4</v>
+      </c>
+      <c r="D188" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E188" s="16">
+        <v>29.34</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" ht="25.5">
+      <c r="A189" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="B189" s="16">
+        <v>313.02</v>
+      </c>
+      <c r="C189" s="16">
+        <v>3.33</v>
+      </c>
+      <c r="D189" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="E189" s="16">
+        <v>32.58</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="B190" s="16">
+        <v>289</v>
+      </c>
+      <c r="C190" s="16">
+        <v>8.82</v>
+      </c>
+      <c r="D190" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E190" s="16">
+        <v>44.22</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="B191" s="16">
+        <v>329.99</v>
+      </c>
+      <c r="C191" s="16">
+        <v>8.82</v>
+      </c>
+      <c r="D191" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E191" s="16">
+        <v>50.49</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="B192" s="16">
+        <v>331.49</v>
+      </c>
+      <c r="C192" s="16">
+        <v>8.82</v>
+      </c>
+      <c r="D192" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E192" s="16">
+        <v>50.72</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="B193" s="16">
+        <v>356.8</v>
+      </c>
+      <c r="C193" s="16">
+        <v>8.82</v>
+      </c>
+      <c r="D193" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E193" s="16">
+        <v>54.59</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="B194" s="16">
+        <v>408.99</v>
+      </c>
+      <c r="C194" s="16">
+        <v>6.06</v>
+      </c>
+      <c r="D194" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E194" s="16">
+        <v>62.58</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="B195" s="16">
+        <v>481</v>
+      </c>
+      <c r="C195" s="16">
+        <v>9.24</v>
+      </c>
+      <c r="D195" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E195" s="16">
+        <v>73.59</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="B196" s="16">
+        <v>629.99</v>
+      </c>
+      <c r="C196" s="16">
+        <v>8.82</v>
+      </c>
+      <c r="D196" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E196" s="16">
+        <v>96.39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A18FEBEB-0461-4248-8E06-1256C43D086B}">
+  <dimension ref="A1:E82"/>
+  <sheetViews>
+    <sheetView topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="A82" sqref="A82"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="14">
+        <v>19.489999999999998</v>
+      </c>
+      <c r="C2" s="14">
+        <v>3.15</v>
+      </c>
+      <c r="D2" s="14">
+        <v>1.8</v>
+      </c>
+      <c r="E2" s="14">
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="14">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="C3" s="14">
+        <v>3.15</v>
+      </c>
+      <c r="D3" s="14">
+        <v>1.8</v>
+      </c>
+      <c r="E3" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="14">
+        <v>17.989999999999998</v>
+      </c>
+      <c r="C4" s="14">
+        <v>3.15</v>
+      </c>
+      <c r="D4" s="14">
+        <v>1.8</v>
+      </c>
+      <c r="E4" s="14">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="25.5">
+      <c r="A5" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="B5" s="14">
+        <v>17.989999999999998</v>
+      </c>
+      <c r="C5" s="14">
+        <v>5.37</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="E5" s="14">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="25.5">
+      <c r="A6" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="B6" s="14">
+        <v>17.989999999999998</v>
+      </c>
+      <c r="C6" s="14">
+        <v>3.68</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="25.5">
+      <c r="A7" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="B7" s="14">
+        <v>17.989999999999998</v>
+      </c>
+      <c r="C7" s="14">
+        <v>5.87</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="25.5">
+      <c r="A8" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="B8" s="14">
+        <v>17.989999999999998</v>
+      </c>
+      <c r="C8" s="14">
+        <v>7</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="25.5">
+      <c r="A9" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="B9" s="14">
+        <v>17.989999999999998</v>
+      </c>
+      <c r="C9" s="14">
+        <v>5.77</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="25.5">
+      <c r="A10" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="B10" s="14">
+        <v>18.95</v>
+      </c>
+      <c r="C10" s="14">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="E10" s="14">
+        <v>2.84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="25.5">
+      <c r="A11" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="B11" s="14">
+        <v>18.95</v>
+      </c>
+      <c r="C11" s="14">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="E11" s="14">
+        <v>2.84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="25.5">
+      <c r="A12" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="C12" s="16">
+        <v>4.55</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="25.5">
+      <c r="A13" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="C13" s="16">
+        <v>4.26</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="25.5">
+      <c r="A14" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="C14" s="16">
+        <v>22.53</v>
+      </c>
+      <c r="D14" s="16">
+        <v>1.8</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="25.5">
+      <c r="A15" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="C15" s="16">
+        <v>19.489999999999998</v>
+      </c>
+      <c r="D15" s="16">
+        <v>1.8</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="25.5">
+      <c r="A16" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="C16" s="16">
+        <v>3.68</v>
+      </c>
+      <c r="D16" s="16">
+        <v>1.8</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="25.5">
+      <c r="A17" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="C17" s="16">
+        <v>3.15</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="25.5">
+      <c r="A18" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="C18" s="16">
+        <v>19.489999999999998</v>
+      </c>
+      <c r="D18" s="16">
+        <v>1.8</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="25.5">
+      <c r="A19" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="C19" s="16">
+        <v>19.489999999999998</v>
+      </c>
+      <c r="D19" s="16">
+        <v>1.8</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="25.5">
+      <c r="A20" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="C20" s="16">
+        <v>21.77</v>
+      </c>
+      <c r="D20" s="16">
+        <v>1.8</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="25.5">
+      <c r="A21" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="C21" s="16">
+        <v>4.66</v>
+      </c>
+      <c r="D21" s="16">
+        <v>1.8</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="25.5">
+      <c r="A22" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="C22" s="16">
+        <v>6.32</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="25.5">
+      <c r="A23" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="B23" s="16">
+        <v>12.89</v>
+      </c>
+      <c r="C23" s="16">
+        <v>3.06</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="E23" s="16">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="25.5">
+      <c r="A24" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="B24" s="16">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="C24" s="16">
+        <v>2.29</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="E24" s="16">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="25.5">
+      <c r="A25" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="B25" s="16">
+        <v>10.99</v>
+      </c>
+      <c r="C25" s="16">
+        <v>3.9</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="E25" s="16">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="B26" s="16">
+        <v>14.65</v>
+      </c>
+      <c r="C26" s="16">
+        <v>3.15</v>
+      </c>
+      <c r="D26" s="16">
+        <v>1.8</v>
+      </c>
+      <c r="E26" s="16">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="B27" s="16">
+        <v>15.69</v>
+      </c>
+      <c r="C27" s="16">
+        <v>3.15</v>
+      </c>
+      <c r="D27" s="16">
+        <v>1.8</v>
+      </c>
+      <c r="E27" s="16">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="B28" s="16">
+        <v>17.46</v>
+      </c>
+      <c r="C28" s="16">
+        <v>3.15</v>
+      </c>
+      <c r="D28" s="16">
+        <v>1.8</v>
+      </c>
+      <c r="E28" s="16">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="B29" s="16">
+        <v>18.850000000000001</v>
+      </c>
+      <c r="C29" s="16">
+        <v>3.15</v>
+      </c>
+      <c r="D29" s="16">
+        <v>1.8</v>
+      </c>
+      <c r="E29" s="16">
+        <v>2.83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="B30" s="16">
+        <v>19.48</v>
+      </c>
+      <c r="C30" s="16">
+        <v>3.15</v>
+      </c>
+      <c r="D30" s="16">
+        <v>1.8</v>
+      </c>
+      <c r="E30" s="16">
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="B31" s="16">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="C31" s="16">
+        <v>3.9</v>
+      </c>
+      <c r="D31" s="16">
+        <v>1.8</v>
+      </c>
+      <c r="E31" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="B32" s="16">
+        <v>21.2</v>
+      </c>
+      <c r="C32" s="16">
+        <v>3.15</v>
+      </c>
+      <c r="D32" s="16">
+        <v>1.8</v>
+      </c>
+      <c r="E32" s="16">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="B33" s="16">
+        <v>21.5</v>
+      </c>
+      <c r="C33" s="16">
+        <v>3.06</v>
+      </c>
+      <c r="D33" s="16">
+        <v>1.8</v>
+      </c>
+      <c r="E33" s="16">
+        <v>3.23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="B34" s="16">
+        <v>21.98</v>
+      </c>
+      <c r="C34" s="16">
+        <v>3.06</v>
+      </c>
+      <c r="D34" s="16">
+        <v>1.8</v>
+      </c>
+      <c r="E34" s="16">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="B35" s="16">
+        <v>21.99</v>
+      </c>
+      <c r="C35" s="16">
+        <v>3.15</v>
+      </c>
+      <c r="D35" s="16">
+        <v>1.8</v>
+      </c>
+      <c r="E35" s="16">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="B36" s="16">
+        <v>23.62</v>
+      </c>
+      <c r="C36" s="16">
+        <v>3.15</v>
+      </c>
+      <c r="D36" s="16">
+        <v>1.8</v>
+      </c>
+      <c r="E36" s="16">
+        <v>3.54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="B37" s="16">
+        <v>24.97</v>
+      </c>
+      <c r="C37" s="16">
+        <v>3.15</v>
+      </c>
+      <c r="D37" s="16">
+        <v>1.8</v>
+      </c>
+      <c r="E37" s="16">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="B38" s="16">
+        <v>25.5</v>
+      </c>
+      <c r="C38" s="16">
+        <v>3.06</v>
+      </c>
+      <c r="D38" s="16">
+        <v>1.8</v>
+      </c>
+      <c r="E38" s="16">
+        <v>3.83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="B39" s="16">
+        <v>27.23</v>
+      </c>
+      <c r="C39" s="16">
+        <v>3.06</v>
+      </c>
+      <c r="D39" s="16">
+        <v>1.8</v>
+      </c>
+      <c r="E39" s="16">
+        <v>4.08</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="B40" s="16">
+        <v>27.49</v>
+      </c>
+      <c r="C40" s="16">
+        <v>3.06</v>
+      </c>
+      <c r="D40" s="16">
+        <v>1.8</v>
+      </c>
+      <c r="E40" s="16">
+        <v>4.12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="B41" s="16">
+        <v>27.95</v>
+      </c>
+      <c r="C41" s="16">
+        <v>3.11</v>
+      </c>
+      <c r="D41" s="16">
+        <v>1.8</v>
+      </c>
+      <c r="E41" s="16">
+        <v>4.1900000000000004</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="B42" s="16">
+        <v>27.97</v>
+      </c>
+      <c r="C42" s="16">
+        <v>3.06</v>
+      </c>
+      <c r="D42" s="16">
+        <v>1.8</v>
+      </c>
+      <c r="E42" s="16">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="B43" s="16">
+        <v>28.21</v>
+      </c>
+      <c r="C43" s="16">
+        <v>3.15</v>
+      </c>
+      <c r="D43" s="16">
+        <v>1.8</v>
+      </c>
+      <c r="E43" s="16">
+        <v>4.2300000000000004</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="B44" s="16">
+        <v>28.19</v>
+      </c>
+      <c r="C44" s="16">
+        <v>3.06</v>
+      </c>
+      <c r="D44" s="16">
+        <v>1.8</v>
+      </c>
+      <c r="E44" s="16">
+        <v>4.2300000000000004</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="B45" s="16">
+        <v>28.61</v>
+      </c>
+      <c r="C45" s="16">
+        <v>3.15</v>
+      </c>
+      <c r="D45" s="16">
+        <v>1.8</v>
+      </c>
+      <c r="E45" s="16">
+        <v>4.29</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="B46" s="16">
+        <v>29.49</v>
+      </c>
+      <c r="C46" s="16">
+        <v>3.15</v>
+      </c>
+      <c r="D46" s="16">
+        <v>1.8</v>
+      </c>
+      <c r="E46" s="16">
+        <v>4.42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="B47" s="16">
+        <v>29.5</v>
+      </c>
+      <c r="C47" s="16">
+        <v>4.55</v>
+      </c>
+      <c r="D47" s="16">
+        <v>1.8</v>
+      </c>
+      <c r="E47" s="16">
+        <v>4.43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="B48" s="16">
+        <v>29.99</v>
+      </c>
+      <c r="C48" s="16">
+        <v>3.06</v>
+      </c>
+      <c r="D48" s="16">
+        <v>1.8</v>
+      </c>
+      <c r="E48" s="16">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="B49" s="16">
+        <v>29.99</v>
+      </c>
+      <c r="C49" s="16">
+        <v>3.06</v>
+      </c>
+      <c r="D49" s="16">
+        <v>1.8</v>
+      </c>
+      <c r="E49" s="16">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="B50" s="16">
+        <v>29.99</v>
+      </c>
+      <c r="C50" s="16">
+        <v>3.06</v>
+      </c>
+      <c r="D50" s="16">
+        <v>1.8</v>
+      </c>
+      <c r="E50" s="16">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="B51" s="16">
+        <v>32.479999999999997</v>
+      </c>
+      <c r="C51" s="16">
+        <v>3.06</v>
+      </c>
+      <c r="D51" s="16">
+        <v>1.8</v>
+      </c>
+      <c r="E51" s="16">
+        <v>4.87</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="B52" s="16">
+        <v>34.950000000000003</v>
+      </c>
+      <c r="C52" s="16">
+        <v>3.15</v>
+      </c>
+      <c r="D52" s="16">
+        <v>1.8</v>
+      </c>
+      <c r="E52" s="16">
+        <v>5.24</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="B53" s="16">
+        <v>34.99</v>
+      </c>
+      <c r="C53" s="16">
+        <v>3.15</v>
+      </c>
+      <c r="D53" s="16">
+        <v>1.8</v>
+      </c>
+      <c r="E53" s="16">
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="B54" s="16">
+        <v>35.93</v>
+      </c>
+      <c r="C54" s="16">
+        <v>3.15</v>
+      </c>
+      <c r="D54" s="16">
+        <v>1.8</v>
+      </c>
+      <c r="E54" s="16">
+        <v>5.39</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="B55" s="16">
+        <v>36.81</v>
+      </c>
+      <c r="C55" s="16">
+        <v>3.06</v>
+      </c>
+      <c r="D55" s="16">
+        <v>1.8</v>
+      </c>
+      <c r="E55" s="16">
+        <v>5.52</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="B56" s="16">
+        <v>37.49</v>
+      </c>
+      <c r="C56" s="16">
+        <v>3.15</v>
+      </c>
+      <c r="D56" s="16">
+        <v>1.8</v>
+      </c>
+      <c r="E56" s="16">
+        <v>5.62</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="25.5">
+      <c r="A57" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="B57" s="16">
+        <v>38.369999999999997</v>
+      </c>
+      <c r="C57" s="16">
+        <v>5.77</v>
+      </c>
+      <c r="D57" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="E57" s="16">
+        <v>5.76</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="B58" s="16">
+        <v>38.590000000000003</v>
+      </c>
+      <c r="C58" s="16">
+        <v>3.15</v>
+      </c>
+      <c r="D58" s="16">
+        <v>1.8</v>
+      </c>
+      <c r="E58" s="16">
+        <v>5.79</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="B59" s="16">
+        <v>38.72</v>
+      </c>
+      <c r="C59" s="16">
+        <v>3.06</v>
+      </c>
+      <c r="D59" s="16">
+        <v>1.8</v>
+      </c>
+      <c r="E59" s="16">
+        <v>5.81</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="B60" s="16">
+        <v>39.99</v>
+      </c>
+      <c r="C60" s="16">
+        <v>3.06</v>
+      </c>
+      <c r="D60" s="16">
+        <v>1.8</v>
+      </c>
+      <c r="E60" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="B61" s="16">
+        <v>43.49</v>
+      </c>
+      <c r="C61" s="16">
+        <v>3.9</v>
+      </c>
+      <c r="D61" s="16">
+        <v>1.8</v>
+      </c>
+      <c r="E61" s="16">
+        <v>6.52</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="B62" s="16">
+        <v>48.79</v>
+      </c>
+      <c r="C62" s="16">
+        <v>3.06</v>
+      </c>
+      <c r="D62" s="16">
+        <v>1.8</v>
+      </c>
+      <c r="E62" s="16">
+        <v>7.32</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="25.5">
+      <c r="A63" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="B63" s="16">
+        <v>48.99</v>
+      </c>
+      <c r="C63" s="16">
+        <v>7.08</v>
+      </c>
+      <c r="D63" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="E63" s="16">
+        <v>7.35</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="B64" s="16">
+        <v>49.69</v>
+      </c>
+      <c r="C64" s="16">
+        <v>3.15</v>
+      </c>
+      <c r="D64" s="16">
+        <v>1.8</v>
+      </c>
+      <c r="E64" s="16">
+        <v>7.45</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="B65" s="16">
+        <v>49.99</v>
+      </c>
+      <c r="C65" s="16">
+        <v>3.06</v>
+      </c>
+      <c r="D65" s="16">
+        <v>1.8</v>
+      </c>
+      <c r="E65" s="16">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="B66" s="16">
+        <v>49.99</v>
+      </c>
+      <c r="C66" s="16">
+        <v>3.06</v>
+      </c>
+      <c r="D66" s="16">
+        <v>1.8</v>
+      </c>
+      <c r="E66" s="16">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="B67" s="16">
+        <v>50.34</v>
+      </c>
+      <c r="C67" s="16">
+        <v>3.15</v>
+      </c>
+      <c r="D67" s="16">
+        <v>1.8</v>
+      </c>
+      <c r="E67" s="16">
+        <v>7.55</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="B68" s="16">
+        <v>50.83</v>
+      </c>
+      <c r="C68" s="16">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="D68" s="16">
+        <v>1.8</v>
+      </c>
+      <c r="E68" s="16">
+        <v>7.62</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="B69" s="16">
+        <v>50.99</v>
+      </c>
+      <c r="C69" s="16">
+        <v>3.06</v>
+      </c>
+      <c r="D69" s="16">
+        <v>1.8</v>
+      </c>
+      <c r="E69" s="16">
+        <v>7.65</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="25.5">
+      <c r="A70" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="B70" s="16">
+        <v>51.94</v>
+      </c>
+      <c r="C70" s="16">
+        <v>7.24</v>
+      </c>
+      <c r="D70" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="E70" s="16">
+        <v>7.79</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="B71" s="16">
+        <v>54.47</v>
+      </c>
+      <c r="C71" s="16">
+        <v>3.15</v>
+      </c>
+      <c r="D71" s="16">
+        <v>1.8</v>
+      </c>
+      <c r="E71" s="16">
+        <v>8.17</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="B72" s="16">
+        <v>54.99</v>
+      </c>
+      <c r="C72" s="16">
+        <v>3.15</v>
+      </c>
+      <c r="D72" s="16">
+        <v>1.8</v>
+      </c>
+      <c r="E72" s="16">
+        <v>8.25</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="B73" s="16">
+        <v>55.49</v>
+      </c>
+      <c r="C73" s="16">
+        <v>3.06</v>
+      </c>
+      <c r="D73" s="16">
+        <v>1.8</v>
+      </c>
+      <c r="E73" s="16">
+        <v>8.32</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="B74" s="16">
+        <v>56.08</v>
+      </c>
+      <c r="C74" s="16">
+        <v>3.15</v>
+      </c>
+      <c r="D74" s="16">
+        <v>1.8</v>
+      </c>
+      <c r="E74" s="16">
+        <v>8.41</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="25.5">
+      <c r="A75" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="B75" s="16">
+        <v>57.81</v>
+      </c>
+      <c r="C75" s="16">
+        <v>6.32</v>
+      </c>
+      <c r="D75" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="E75" s="16">
+        <v>8.67</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="B76" s="16">
+        <v>68.7</v>
+      </c>
+      <c r="C76" s="16">
+        <v>3.24</v>
+      </c>
+      <c r="D76" s="16">
+        <v>1.8</v>
+      </c>
+      <c r="E76" s="16">
+        <v>10.31</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="25.5">
+      <c r="A77" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="B77" s="16">
+        <v>79.59</v>
+      </c>
+      <c r="C77" s="16">
+        <v>6.85</v>
+      </c>
+      <c r="D77" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="E77" s="16">
+        <v>11.94</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="B78" s="16">
+        <v>103.97</v>
+      </c>
+      <c r="C78" s="16">
+        <v>3.9</v>
+      </c>
+      <c r="D78" s="16">
+        <v>1.8</v>
+      </c>
+      <c r="E78" s="16">
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="25.5">
+      <c r="A79" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="B79" s="16">
+        <v>209.98</v>
+      </c>
+      <c r="C79" s="16">
+        <v>7</v>
+      </c>
+      <c r="D79" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="E79" s="16">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="B80" s="16">
+        <v>162.09</v>
+      </c>
+      <c r="C80" s="16">
+        <v>7.24</v>
+      </c>
+      <c r="D80" s="16">
+        <v>1.8</v>
+      </c>
+      <c r="E80" s="16">
+        <v>24.31</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="B81" s="16">
+        <v>209.99</v>
+      </c>
+      <c r="C81" s="16">
+        <v>26.53</v>
+      </c>
+      <c r="D81" s="16">
+        <v>1.8</v>
+      </c>
+      <c r="E81" s="16">
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="25.5">
+      <c r="A82" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="B82" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="C82" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="D82" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="E82" s="15" t="s">
+        <v>230</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>